--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_simple_covars.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_simple_covars.xlsx
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2539699500885997</v>
+        <v>-0.2539699500885996</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09475659146874962</v>
+        <v>-0.09475659146874957</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.02385084678320616</v>
+        <v>0.02385084678320621</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.257481662975822</v>
+        <v>-0.2574816629758219</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.101568313861258e-07</v>
+        <v>6.101568313861304e-07</v>
       </c>
     </row>
     <row r="6">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2788425550588606</v>
+        <v>-0.2788425550588604</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.049272922072092e-08</v>
+        <v>5.049272922072166e-08</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4496986509845254</v>
+        <v>-0.4496986509845253</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.726618399874956e-19</v>
+        <v>4.726618399875093e-19</v>
       </c>
     </row>
     <row r="8">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3861847391745135</v>
+        <v>-0.3861847391745133</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.119594106568118e-13</v>
+        <v>1.119594106568138e-13</v>
       </c>
     </row>
     <row r="9">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3691594784223771</v>
+        <v>-0.3691594784223768</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.108675637891873e-16</v>
+        <v>3.108675637892007e-16</v>
       </c>
     </row>
     <row r="11">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4536852302397422</v>
+        <v>-0.4536852302397421</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3767700215337415</v>
+        <v>-0.3767700215337412</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.138900776687129e-16</v>
+        <v>2.138900776687345e-16</v>
       </c>
     </row>
     <row r="3">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2001484465163409</v>
+        <v>-0.2001484465163404</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.207623180271505e-07</v>
+        <v>7.207623180272015e-07</v>
       </c>
     </row>
     <row r="4">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.185384691045543</v>
+        <v>-0.1853846910455427</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.288974429415371e-05</v>
+        <v>5.28897442941554e-05</v>
       </c>
     </row>
     <row r="5">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3894282410601094</v>
+        <v>-0.3894282410601092</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.565009721576059e-15</v>
+        <v>4.565009721576322e-15</v>
       </c>
     </row>
     <row r="6">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3780866979004418</v>
+        <v>-0.3780866979004417</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.611324939853105e-14</v>
+        <v>6.611324939853487e-14</v>
       </c>
     </row>
     <row r="7">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.404566490137869e-39</v>
+        <v>3.404566490138259e-39</v>
       </c>
     </row>
     <row r="8">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5816119261440031</v>
+        <v>-0.5816119261440033</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.371568885121168e-31</v>
+        <v>8.371568885121888e-31</v>
       </c>
     </row>
     <row r="9">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5100527986972541</v>
+        <v>-0.5100527986972538</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.671921539344818e-31</v>
+        <v>1.671921539345009e-31</v>
       </c>
     </row>
     <row r="10">
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.4606158889672608</v>
+        <v>-0.4606158889672606</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.551835640062867e-22</v>
+        <v>2.551835640063069e-22</v>
       </c>
     </row>
     <row r="11">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.6636023350150914</v>
+        <v>-0.6636023350150912</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>9.835052008668621e-44</v>
+        <v>9.835052008670168e-44</v>
       </c>
     </row>
   </sheetData>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3844431707114119</v>
+        <v>-0.3844431707114111</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.055517775273591e-14</v>
+        <v>2.055517775273731e-14</v>
       </c>
     </row>
     <row r="3">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2018237866699896</v>
+        <v>-0.201823786669988</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.121745236004461e-06</v>
+        <v>1.121745236004645e-06</v>
       </c>
     </row>
     <row r="4">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1622657989669428</v>
+        <v>-0.1622657989669414</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0001817997442394053</v>
+        <v>0.0001817997442394258</v>
       </c>
     </row>
     <row r="5">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3156606288628196</v>
+        <v>-0.3156606288628179</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.41862952535241e-09</v>
+        <v>4.418629525353087e-09</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3732269118415403</v>
+        <v>-0.3732269118415391</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.612141698311075e-12</v>
+        <v>2.612141698311359e-12</v>
       </c>
     </row>
     <row r="7">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.509503236702628</v>
+        <v>-0.5095032367026271</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.501325124126675e-18</v>
+        <v>8.50132512412741e-18</v>
       </c>
     </row>
     <row r="8">
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4587503149080041</v>
+        <v>-0.4587503149080032</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.369269831266302e-16</v>
+        <v>5.369269831266649e-16</v>
       </c>
     </row>
     <row r="9">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4096249155738765</v>
+        <v>-0.4096249155738756</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.095781764920168e-17</v>
+        <v>1.095781764920271e-17</v>
       </c>
     </row>
     <row r="10">
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2755551766263319</v>
+        <v>-0.2755551766263307</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7.45928271822345e-08</v>
+        <v>7.459282718224186e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4692976609223327</v>
+        <v>-0.4692976609223312</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.685459875738671e-16</v>
+        <v>2.685459875739001e-16</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2217737888053636</v>
+        <v>-0.2217737888053632</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0008521343495834206</v>
+        <v>0.0008521343495834231</v>
       </c>
     </row>
     <row r="3">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2656990314298359</v>
+        <v>-0.2656990314298351</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.332139225068827e-05</v>
+        <v>3.332139225068931e-05</v>
       </c>
     </row>
     <row r="4">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1817848329773085</v>
+        <v>-0.1817848329773079</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.005991568827211922</v>
+        <v>0.005991568827212037</v>
       </c>
     </row>
     <row r="5">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3253934110912676</v>
+        <v>-0.3253934110912669</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.288269747020864e-06</v>
+        <v>3.288269747020948e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3394454534513022</v>
+        <v>-0.3394454534513015</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.288269747020864e-06</v>
+        <v>3.288269747020948e-06</v>
       </c>
     </row>
     <row r="7">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2829818560561762</v>
+        <v>-0.2829818560561757</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1993351624750674</v>
+        <v>-0.1993351624750671</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2062387264818077</v>
+        <v>-0.2062387264818072</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.004029315691621078</v>
+        <v>0.00402931569162111</v>
       </c>
     </row>
     <row r="10">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2232669862655756</v>
+        <v>-0.223266986265575</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.001962060920729599</v>
+        <v>0.001962060920729621</v>
       </c>
     </row>
     <row r="11">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2749679125616709</v>
+        <v>-0.2749679125616704</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2635105150456395</v>
+        <v>0.2635105150456389</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.607191195766592e-09</v>
+        <v>3.607191195766696e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2214117001690154</v>
+        <v>0.221411700169015</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.126759304627029e-07</v>
+        <v>1.126759304627051e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2157760453189388</v>
+        <v>0.2157760453189385</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.636685684699517e-07</v>
+        <v>2.636685684699521e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2994733064978408</v>
+        <v>0.2994733064978403</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.686165142126278e-11</v>
+        <v>7.686165142126336e-11</v>
       </c>
     </row>
     <row r="6">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3446040959882115</v>
+        <v>0.344604095988211</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.895341921389713e-11</v>
+        <v>3.895341921389825e-11</v>
       </c>
     </row>
     <row r="7">
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3694932967477746</v>
+        <v>0.3694932967477741</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.133209962619808e-13</v>
+        <v>6.133209962619919e-13</v>
       </c>
     </row>
     <row r="8">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3092173186315254</v>
+        <v>0.3092173186315247</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6.434891217374923e-09</v>
+        <v>6.434891217375112e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3013515476254905</v>
+        <v>0.30135154762549</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.22902926552626e-10</v>
+        <v>1.2290292655263e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2804213193897227</v>
+        <v>0.2804213193897223</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3262714954016999</v>
+        <v>0.3262714954016994</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.39262523862501e-10</v>
+        <v>1.392625238625025e-10</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1601643198126813</v>
+        <v>0.1601643198126812</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0001892621060130855</v>
+        <v>0.0001892621060130898</v>
       </c>
     </row>
     <row r="3">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1540451745041106</v>
+        <v>0.1540451745041103</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0001120164357510308</v>
+        <v>0.0001120164357510366</v>
       </c>
     </row>
     <row r="4">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1437818755771564</v>
+        <v>0.1437818755771562</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.0002396804392699676</v>
+        <v>0.0002396804392699761</v>
       </c>
     </row>
     <row r="5">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1634877250152343</v>
+        <v>0.1634877250152341</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.000221499166453124</v>
+        <v>0.0002214991664531323</v>
       </c>
     </row>
     <row r="6">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2137631075272048</v>
+        <v>0.2137631075272046</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.535346070150254e-05</v>
+        <v>1.535346070150322e-05</v>
       </c>
     </row>
     <row r="7">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.495991958713204e-05</v>
+        <v>6.495991958713287e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1662408426362009</v>
+        <v>0.1662408426362008</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0003871099136000337</v>
+        <v>0.0003871099136000403</v>
       </c>
     </row>
     <row r="9">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1728107301114847</v>
+        <v>0.1728107301114846</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0001455921605792166</v>
+        <v>0.0001455921605792194</v>
       </c>
     </row>
     <row r="10">
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.177812913433161</v>
+        <v>0.1778129134331607</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.942315324768946e-05</v>
+        <v>6.942315324769218e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1401173204967742</v>
+        <v>0.1401173204967741</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.002503147872549414</v>
+        <v>0.00250314787254946</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.780732998784918e-10</v>
+        <v>5.780732998784877e-10</v>
       </c>
     </row>
     <row r="3">
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2294342767718197</v>
+        <v>0.2294342767718198</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.741509468071835e-07</v>
+        <v>3.741509468071822e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.229364577604172</v>
+        <v>0.2293645776041722</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.353586196981865e-07</v>
+        <v>5.353586196981757e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1849,7 +1849,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3511445874828403</v>
+        <v>0.3511445874828402</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.679166221142125e-11</v>
+        <v>1.679166221142143e-11</v>
       </c>
     </row>
     <row r="7">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.035484588328589e-10</v>
+        <v>5.035484588328626e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3457978484327114</v>
+        <v>0.3457978484327116</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.724484460824844e-12</v>
+        <v>6.72448446082472e-12</v>
       </c>
     </row>
     <row r="10">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.817858223190953e-10</v>
+        <v>1.817858223190939e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4171383117570167</v>
+        <v>0.4171383117570168</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.256562897871203e-13</v>
+        <v>1.256562897871212e-13</v>
       </c>
     </row>
   </sheetData>
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.451234513417608</v>
+        <v>0.4512345134176081</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2981584325142893</v>
+        <v>0.2981584325142895</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.888710487869653e-12</v>
+        <v>1.888710487869619e-12</v>
       </c>
     </row>
     <row r="4">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2803100064044511</v>
+        <v>0.2803100064044513</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.277879687556645e-08</v>
+        <v>1.277879687556635e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4781853036473026</v>
+        <v>0.4781853036473027</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4812576236891372</v>
+        <v>0.4812576236891373</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.297563023715157e-19</v>
+        <v>1.297563023715194e-19</v>
       </c>
     </row>
     <row r="7">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6104904883384484</v>
+        <v>0.6104904883384485</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.338948821103101e-29</v>
+        <v>4.338948821103164e-29</v>
       </c>
     </row>
     <row r="9">
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.420115688657505e-21</v>
+        <v>1.420115688657546e-21</v>
       </c>
     </row>
     <row r="10">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3924766324593298</v>
+        <v>0.3924766324593299</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7.879790680617516e-15</v>
+        <v>7.879790680617659e-15</v>
       </c>
     </row>
     <row r="11">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6240305542232621</v>
+        <v>0.6240305542232624</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.473306512886969e-29</v>
+        <v>3.473306512886769e-29</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_simple_covars.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_simple_covars.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -469,15 +469,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2539699500885996</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[-0.348, -0.16]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2.220592383461494e-07</v>
+        <v>-0.253939229290468</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.412597730726703e-07</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.347, -0.161]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -487,15 +487,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09475659146874957</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[-0.177, -0.0126]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02385084678320621</v>
+        <v>-0.0947455236885343</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02361692507682421</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[-0.177, -0.0127]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -505,15 +505,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1091854747352176</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[-0.193, -0.0258]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01157360286438649</v>
+        <v>-0.1091170982100667</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01126604411817717</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-0.192, -0.0259]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -523,15 +523,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2574816629758219</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[-0.357, -0.158]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>6.101568313861304e-07</v>
+        <v>-0.2571187540774393</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.284509599460617e-07</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[-0.356, -0.158]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -541,15 +541,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2788425550588604</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[-0.376, -0.182]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5.049272922072166e-08</v>
+        <v>-0.2777210163292188</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.218771078399278e-08</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[-0.375, -0.181]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -559,15 +559,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4496986509845253</v>
-      </c>
-      <c r="C7" t="inlineStr">
+        <v>-0.4501172846436302</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.459831726534344e-21</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>[-0.543, -0.357]</t>
         </is>
-      </c>
-      <c r="D7" t="n">
-        <v>4.726618399875093e-19</v>
       </c>
     </row>
     <row r="8">
@@ -577,15 +577,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3861847391745133</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.484, -0.288]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.119594106568138e-13</v>
+        <v>-0.3851280891139785</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.917732181261323e-14</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.483, -0.288]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -595,15 +595,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.369884472079863</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[-0.449, -0.29]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>5.906507245921609e-18</v>
+        <v>-0.3704686004143691</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.545877822821609e-19</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.45, -0.291]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -613,15 +613,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3691594784223768</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[-0.454, -0.285]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>3.108675637892007e-16</v>
+        <v>-0.3689396571232315</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.06379328404266e-17</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[-0.453, -0.285]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -631,15 +631,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4536852302397421</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>-0.4535418465881329</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.772888662414951e-21</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>[-0.545, -0.362]</t>
         </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1.450723606407521e-19</v>
       </c>
     </row>
   </sheetData>
@@ -674,12 +674,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -690,15 +690,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3767700215337412</v>
-      </c>
-      <c r="C2" t="inlineStr">
+        <v>-0.3771306052013635</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.339599389878535e-17</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>[-0.463, -0.291]</t>
         </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2.138900776687345e-16</v>
       </c>
     </row>
     <row r="3">
@@ -708,15 +708,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2001484465163404</v>
-      </c>
-      <c r="C3" t="inlineStr">
+        <v>-0.1995942135720264</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.796581562756225e-07</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>[-0.278, -0.122]</t>
         </is>
-      </c>
-      <c r="D3" t="n">
-        <v>7.207623180272015e-07</v>
       </c>
     </row>
     <row r="4">
@@ -726,15 +726,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1853846910455427</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[-0.275, -0.0961]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5.28897442941554e-05</v>
+        <v>-0.185118922904737</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.681202451964505e-05</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-0.274, -0.096]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -744,15 +744,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3894282410601092</v>
-      </c>
-      <c r="C5" t="inlineStr">
+        <v>-0.3896904732083704</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.637663615559121e-16</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>[-0.483, -0.296]</t>
         </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4.565009721576322e-15</v>
       </c>
     </row>
     <row r="6">
@@ -762,15 +762,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3780866979004417</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[-0.474, -0.282]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>6.611324939853487e-14</v>
+        <v>-0.3789701064540825</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.591736674070492e-15</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[-0.474, -0.284]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6083465744983183</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[-0.69, -0.526]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3.404566490138259e-39</v>
+        <v>-0.610088053674419</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.288584054772861e-47</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.692, -0.528]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -798,15 +798,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5816119261440033</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.673, -0.49]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>8.371568885121888e-31</v>
+        <v>-0.5819946364118636</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.161795605390473e-35</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.673, -0.491]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -816,15 +816,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5100527986972538</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[-0.589, -0.431]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.671921539345009e-31</v>
+        <v>-0.5093480565664588</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.896350259598305e-36</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.588, -0.431]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -834,15 +834,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.4606158889672606</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>-0.4607680846222005</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.170796598390036e-24</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>[-0.548, -0.373]</t>
         </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2.551835640063069e-22</v>
       </c>
     </row>
     <row r="11">
@@ -852,15 +852,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.6636023350150912</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[-0.747, -0.58]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>9.835052008670168e-44</v>
+        <v>-0.6640914873994164</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.870919430927206e-54</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[-0.747, -0.581]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -895,12 +895,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -911,15 +911,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.3844431707114111</v>
-      </c>
-      <c r="C2" t="inlineStr">
+        <v>-0.3843445728770492</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.591143556467999e-15</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>[-0.479, -0.29]</t>
         </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2.055517775273731e-14</v>
       </c>
     </row>
     <row r="3">
@@ -929,15 +929,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.201823786669988</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[-0.282, -0.122]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.121745236004645e-06</v>
+        <v>-0.2033171892903309</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.836196381413988e-07</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[-0.283, -0.123]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -947,15 +947,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1622657989669414</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[-0.247, -0.0778]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0001817997442394258</v>
+        <v>-0.1627368912770988</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0001546961787848679</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-0.247, -0.0784]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -965,15 +965,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3156606288628179</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[-0.418, -0.213]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4.418629525353087e-09</v>
+        <v>-0.3161437489336437</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.047309093058686e-09</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[-0.419, -0.214]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -983,15 +983,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3732269118415391</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[-0.474, -0.272]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2.612141698311359e-12</v>
+        <v>-0.3738420801328286</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.632162768433597e-13</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[-0.475, -0.273]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1001,15 +1001,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5095032367026271</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[-0.618, -0.401]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>8.50132512412741e-18</v>
+        <v>-0.5094568048517055</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.405110018377259e-19</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.617, -0.401]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1019,15 +1019,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4587503149080032</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.564, -0.353]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5.369269831266649e-16</v>
+        <v>-0.4597053803759066</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.334781098665037e-17</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.565, -0.354]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1037,15 +1037,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.4096249155738756</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[-0.498, -0.321]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.095781764920271e-17</v>
+        <v>-0.4084740760656571</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.255437247459307e-19</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.496, -0.321]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1055,15 +1055,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2755551766263307</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[-0.374, -0.177]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>7.459282718224186e-08</v>
+        <v>-0.2763605173649853</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.197480360106028e-08</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[-0.374, -0.178]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1073,15 +1073,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4692976609223312</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[-0.576, -0.363]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2.685459875739001e-16</v>
+        <v>-0.4692177884172419</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.628863082306417e-17</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[-0.575, -0.363]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1116,12 +1116,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -1132,15 +1132,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2217737888053632</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[-0.346, -0.0972]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0008521343495834231</v>
+        <v>-0.2216882164458053</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0007803774905045808</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[-0.346, -0.0975]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1150,15 +1150,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2656990314298351</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[-0.383, -0.149]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3.332139225068931e-05</v>
+        <v>-0.2669170626018602</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.542601333619146e-05</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[-0.384, -0.15]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1168,15 +1168,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1817848329773079</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[-0.31, -0.054]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.005991568827212037</v>
+        <v>-0.1820987315647551</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.005681800503337872</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[-0.31, -0.0546]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1186,15 +1186,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3253934110912669</v>
-      </c>
-      <c r="C5" t="inlineStr">
+        <v>-0.3253220073627779</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.295755310442987e-06</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>[-0.452, -0.199]</t>
         </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3.288269747020948e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1204,15 +1204,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3394454534513015</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[-0.469, -0.21]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3.288269747020948e-06</v>
+        <v>-0.3385317558597838</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.295755310442987e-06</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[-0.467, -0.21]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1222,15 +1222,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2829818560561757</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[-0.418, -0.148]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0001099899204590559</v>
+        <v>-0.2827885077287758</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.425659684093643e-05</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[-0.417, -0.148]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1993351624750671</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[-0.342, -0.0564]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.006384715068831946</v>
+        <v>-0.1989744183908014</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.006197245761786199</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[-0.341, -0.0565]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1258,15 +1258,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2062387264818072</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[-0.343, -0.0694]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.00402931569162111</v>
+        <v>-0.2066633325017627</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.003764842880647581</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[-0.343, -0.0701]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1276,15 +1276,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.223266986265575</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[-0.36, -0.087]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.001962060920729621</v>
+        <v>-0.2235214931082757</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001818707788109521</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[-0.359, -0.0876]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1294,15 +1294,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2749679125616704</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>-0.2748499220663766</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0004376706411608353</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>[-0.421, -0.129]</t>
         </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0004888479468227763</v>
       </c>
     </row>
   </sheetData>
@@ -1337,12 +1337,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -1353,15 +1353,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2635105150456389</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.178, 0.349]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3.607191195766696e-09</v>
+        <v>0.8804069895649647</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.496684743978074e-14</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.651, 1.11]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1371,15 +1371,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.221411700169015</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.141, 0.302]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.126759304627051e-07</v>
+        <v>0.9326397677668747</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.508340323076942e-15</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.698, 1.17]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1389,15 +1389,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2157760453189385</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.135, 0.297]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2.636685684699521e-07</v>
+        <v>0.8742461793515306</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.231087957604654e-12</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.63, 1.12]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1407,15 +1407,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2994733064978403</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.214, 0.385]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>7.686165142126336e-11</v>
+        <v>1.225967135394249</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.548275452424103e-19</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.964, 1.49]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1425,15 +1425,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.344604095988211</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.248, 0.441]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3.895341921389825e-11</v>
+        <v>1.191441859863962</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.129304429008764e-15</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.902, 1.48]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1443,15 +1443,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3694932967477741</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0.276, 0.463]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>6.133209962619919e-13</v>
+        <v>1.333304340583565</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.00909727362217e-23</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[1.08, 1.59]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1461,15 +1461,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3092173186315247</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[0.207, 0.411]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>6.434891217375112e-09</v>
+        <v>1.152937379841145</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.31792881500985e-16</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.882, 1.42]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1479,15 +1479,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.30135154762549</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.213, 0.389]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.2290292655263e-10</v>
+        <v>1.078175766799026</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.812652998214329e-17</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[0.829, 1.33]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1497,15 +1497,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2804213193897223</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[0.197, 0.364]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1.840442510470374e-10</v>
+        <v>1.147245260983636</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.552039561839075e-18</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.894, 1.4]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1515,15 +1515,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3262714954016994</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.23, 0.422]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1.392625238625025e-10</v>
+        <v>1.302659413069341</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.237170969796044e-22</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[1.04, 1.56]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1558,12 +1558,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -1574,15 +1574,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1601643198126812</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.0793, 0.241]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0001892621060130898</v>
+        <v>0.3621561313091561</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002989858729860725</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.126, 0.599]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1592,15 +1592,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1540451745041103</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.0806, 0.228]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0001120164357510366</v>
+        <v>0.5034428791595891</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.697739362909881e-06</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.312, 0.695]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1610,15 +1610,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1437818755771562</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.0686, 0.219]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0002396804392699761</v>
+        <v>0.4350218203579895</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.926497866532344e-05</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.233, 0.637]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1628,15 +1628,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1634877250152341</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.0793, 0.248]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0002214991664531323</v>
+        <v>0.4990538401878766</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0001426931785314397</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.253, 0.745]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1646,15 +1646,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2137631075272046</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.128, 0.3]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.535346070150322e-05</v>
+        <v>0.5134109569842763</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.926497866532344e-05</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.273, 0.753]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1664,15 +1664,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2015804496932406</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0.112, 0.291]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>6.495991958713287e-05</v>
+        <v>0.4762068000798534</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0001692973411887767</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[0.236, 0.716]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1682,15 +1682,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1662408426362008</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[0.0756, 0.257]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0003871099136000403</v>
+        <v>0.4067516301922923</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001700914323051486</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.158, 0.656]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1728107301114846</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.088, 0.258]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0001455921605792194</v>
+        <v>0.410182177342441</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0006103399582833947</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[0.182, 0.638]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1718,15 +1718,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1778129134331607</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[0.0966, 0.259]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>6.942315324769218e-05</v>
+        <v>0.5499544995749839</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.145744561745842e-06</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.324, 0.776]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1736,15 +1736,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1401173204967741</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.0495, 0.231]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.00250314787254946</v>
+        <v>0.3592762690731715</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.004203433758072937</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[0.113, 0.605]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1779,12 +1779,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -1795,15 +1795,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2941388199643327</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.203, 0.385]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>5.780732998784877e-10</v>
+        <v>0.5814379249355308</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.04041516584238e-12</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.422, 0.741]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1813,15 +1813,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2294342767718198</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.142, 0.317]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3.741509468071822e-07</v>
+        <v>0.5390977048186938</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.622580087466748e-10</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.37, 0.708]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1831,15 +1831,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2293645776041722</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.141, 0.318]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5.353586196981757e-07</v>
+        <v>0.5290104754823796</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.592412151238847e-09</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.355, 0.703]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1849,15 +1849,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3511445874828402</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.257, 0.445]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3.542244351443471e-12</v>
+        <v>0.8130189237680788</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.665638839748221e-17</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.626, 1.0]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1867,15 +1867,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3807375265559799</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.274, 0.487]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.679166221142143e-11</v>
+        <v>0.7719009986713671</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.710025783749042e-14</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.575, 0.969]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1885,15 +1885,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4333663319281386</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0.334, 0.533]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1.627467717525676e-15</v>
+        <v>0.9268780066930846</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.504173291690432e-22</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[0.744, 1.11]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1903,15 +1903,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3649046212587959</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[0.253, 0.477]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5.035484588328626e-10</v>
+        <v>0.8047207810793648</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.929230082206717e-15</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.608, 1.0]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1921,15 +1921,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3457978484327116</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.251, 0.44]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>6.72448446082472e-12</v>
+        <v>0.7334225341712008</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.321167575074309e-14</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[0.549, 0.918]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1939,15 +1939,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3063100620139713</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[0.215, 0.397]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1.817858223190939e-10</v>
+        <v>0.7076148537212976</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.381623008813045e-14</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.526, 0.889]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1957,15 +1957,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4171383117570168</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.313, 0.521]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1.256562897871212e-13</v>
+        <v>0.9735495081601778</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.621159063783826e-25</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[0.794, 1.15]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2000,12 +2000,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ci</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>p_fdr</t>
         </is>
       </c>
     </row>
@@ -2016,15 +2016,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4512345134176081</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.36, 0.542]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2.765617367730105e-20</v>
+        <v>0.4512549258419123</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.377207963749378e-22</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.361, 0.542]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2034,15 +2034,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2981584325142895</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.217, 0.379]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.888710487869619e-12</v>
+        <v>0.2991775119618245</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.151797596302859e-13</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.218, 0.38]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -2052,15 +2052,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2803100064044513</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[0.185, 0.375]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1.277879687556635e-08</v>
+        <v>0.2805672557895011</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.814005502459712e-09</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.186, 0.375]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2070,15 +2070,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4781853036473027</v>
-      </c>
-      <c r="C5" t="inlineStr">
+        <v>0.4783862804181302</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.712838241393619e-21</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>[0.379, 0.577]</t>
         </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1.973439783027302e-19</v>
       </c>
     </row>
     <row r="6">
@@ -2088,15 +2088,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4812576236891373</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.382, 0.58]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.297563023715194e-19</v>
+        <v>0.4812450141203919</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.110539868757117e-21</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.383, 0.58]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2106,15 +2106,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6104904883384485</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0.524, 0.697]</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>7.528216846529677e-36</v>
+        <v>0.6109912160568604</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.24401874445475e-43</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[0.525, 0.697]</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2124,15 +2124,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5443204083601076</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>[0.456, 0.632]</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4.338948821103164e-29</v>
+        <v>0.5445135422033371</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.031984379708967e-33</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.457, 0.632]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2142,15 +2142,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4783294250258543</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>[0.386, 0.571]</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.420115688657546e-21</v>
+        <v>0.4778357960365109</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.089977851867602e-24</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[0.385, 0.57]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3924766324593299</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>[0.297, 0.488]</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>7.879790680617659e-15</v>
+        <v>0.3929181260848574</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.654756751422905e-16</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.298, 0.488]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2178,15 +2178,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6240305542232624</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[0.524, 0.725]</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3.473306512886769e-29</v>
+        <v>0.6240481878387378</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.530654171156383e-33</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[0.524, 0.724]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_simple_covars.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_simple_covars.xlsx
@@ -468,11 +468,15 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-0.253939229290468</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.412597730726703e-07</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.2539</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.4e-07</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,11 +490,15 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.0947455236885343</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.02361692507682421</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.0947</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -504,11 +512,15 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.1091170982100667</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01126604411817717</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.1091</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -522,11 +534,15 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.2571187540774393</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.284509599460617e-07</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.2571</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.3e-07</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -540,11 +556,15 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.2777210163292188</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.218771078399278e-08</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.2777</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3.2e-08</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -558,11 +578,15 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.4501172846436302</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.459831726534344e-21</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.4501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8.5e-21</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -576,11 +600,15 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.3851280891139785</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.917732181261323e-14</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.3851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.9e-14</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -594,11 +622,15 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.3704686004143691</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.545877822821609e-19</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.3705</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.5e-19</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -612,11 +644,15 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.3689396571232315</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.06379328404266e-17</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.3689</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.1e-17</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -630,11 +666,15 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.4535418465881329</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.772888662414951e-21</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.4535</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.8e-21</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -689,11 +729,15 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-0.3771306052013635</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.339599389878535e-17</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.3771</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.3e-17</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -707,11 +751,15 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.1995942135720264</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.796581562756225e-07</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.1996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.8e-07</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,11 +773,15 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.185118922904737</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.681202451964505e-05</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.1851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4.7e-05</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -743,11 +795,15 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.3896904732083704</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.637663615559121e-16</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.3897</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.6e-16</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -761,11 +817,15 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.3789701064540825</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.591736674070492e-15</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.3790</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8.6e-15</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -779,11 +839,15 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.610088053674419</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.288584054772861e-47</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.6101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.3e-47</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -797,11 +861,15 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.5819946364118636</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.161795605390473e-35</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.5820</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.2e-35</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -815,11 +883,15 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.5093480565664588</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.896350259598305e-36</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.5093</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.9e-36</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -833,11 +905,15 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.4607680846222005</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.170796598390036e-24</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.4608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.2e-24</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -851,11 +927,15 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.6640914873994164</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.870919430927206e-54</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.6641</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.9e-54</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -910,11 +990,15 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-0.3843445728770492</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.591143556467999e-15</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.3843</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2.6e-15</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -928,11 +1012,15 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.2033171892903309</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.836196381413988e-07</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.2033</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6.8e-07</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -946,11 +1034,15 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.1627368912770988</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0001546961787848679</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.1627</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.00015</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -964,11 +1056,15 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.3161437489336437</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.047309093058686e-09</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.3161</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2e-09</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,11 +1078,15 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.3738420801328286</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.632162768433597e-13</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.3738</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5.6e-13</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,11 +1100,15 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.5094568048517055</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.405110018377259e-19</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.5095</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2.4e-19</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1018,11 +1122,15 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.4597053803759066</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.334781098665037e-17</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.4597</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3.3e-17</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1036,11 +1144,15 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.4084740760656571</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.255437247459307e-19</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.4085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4.3e-19</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1054,11 +1166,15 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.2763605173649853</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.197480360106028e-08</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.2764</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>4.2e-08</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1072,11 +1188,15 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.4692177884172419</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.628863082306417e-17</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.4692</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.6e-17</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1131,11 +1251,15 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-0.2216882164458053</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0007803774905045808</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.2217</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.00078</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1149,11 +1273,15 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>-0.2669170626018602</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.542601333619146e-05</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.2669</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.5e-05</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1167,11 +1295,15 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>-0.1820987315647551</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.005681800503337872</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.1821</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1185,11 +1317,15 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>-0.3253220073627779</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.295755310442987e-06</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.3253</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.3e-06</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1203,11 +1339,15 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>-0.3385317558597838</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.295755310442987e-06</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.3385</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2.3e-06</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1221,11 +1361,15 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>-0.2827885077287758</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.425659684093643e-05</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.2828</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9.4e-05</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1239,11 +1383,15 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>-0.1989744183908014</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.006197245761786199</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.1990</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,11 +1405,15 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>-0.2066633325017627</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.003764842880647581</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.2067</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,11 +1427,15 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>-0.2235214931082757</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001818707788109521</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.2235</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1293,11 +1449,15 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>-0.2748499220663766</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0004376706411608353</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.2748</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.00044</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1352,11 +1512,15 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.8804069895649647</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.496684743978074e-14</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.8804</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5.5e-14</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1370,11 +1534,15 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.9326397677668747</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.508340323076942e-15</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.9326</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7.5e-15</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1388,11 +1556,15 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.8742461793515306</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.231087957604654e-12</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.8742</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2.2e-12</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1406,11 +1578,15 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1.225967135394249</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.548275452424103e-19</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.2260</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.5e-19</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1424,11 +1600,15 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1.191441859863962</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.129304429008764e-15</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.1914</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.1e-15</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1442,11 +1622,15 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1.333304340583565</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.00909727362217e-23</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.3333</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1e-23</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1460,11 +1644,15 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.152937379841145</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.31792881500985e-16</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.1529</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.3e-16</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1478,11 +1666,15 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1.078175766799026</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.812652998214329e-17</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.0782</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4.8e-17</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1496,11 +1688,15 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.147245260983636</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.552039561839075e-18</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.1472</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.6e-18</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1514,11 +1710,15 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1.302659413069341</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.237170969796044e-22</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1.3027</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.2e-22</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,11 +1773,15 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.3621561313091561</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.002989858729860725</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.3622</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.003</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1591,11 +1795,15 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.5034428791595891</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.697739362909881e-06</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.5034</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.7e-06</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1609,11 +1817,15 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.4350218203579895</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.926497866532344e-05</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6.9e-05</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1627,11 +1839,15 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.4990538401878766</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0001426931785314397</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.4991</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.00014</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1645,11 +1861,15 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.5134109569842763</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.926497866532344e-05</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.5134</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6.9e-05</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1663,11 +1883,15 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.4762068000798534</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0001692973411887767</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.4762</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.00017</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1681,11 +1905,15 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.4067516301922923</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.001700914323051486</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.4068</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1699,11 +1927,15 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.410182177342441</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0006103399582833947</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.00061</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1717,11 +1949,15 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.5499544995749839</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9.145744561745842e-06</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.5500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9.1e-06</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1735,11 +1971,15 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.3592762690731715</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.004203433758072937</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.3593</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1794,11 +2034,15 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.5814379249355308</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.04041516584238e-12</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.5814</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1e-12</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1812,11 +2056,15 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.5390977048186938</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.622580087466748e-10</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.5391</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.6e-10</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1830,11 +2078,15 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.5290104754823796</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.592412151238847e-09</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.5290</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2.6e-09</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1848,11 +2100,15 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.8130189237680788</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.665638839748221e-17</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.8130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.7e-17</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1866,11 +2122,15 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.7719009986713671</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.710025783749042e-14</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.7719</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2.7e-14</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1884,11 +2144,15 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.9268780066930846</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.504173291690432e-22</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.9269</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1.5e-22</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1902,11 +2166,15 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.8047207810793648</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.929230082206717e-15</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.8047</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2.9e-15</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1920,11 +2188,15 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.7334225341712008</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.321167575074309e-14</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.7334</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.3e-14</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1938,11 +2210,15 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.7076148537212976</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.381623008813045e-14</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.7076</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3.4e-14</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1956,11 +2232,15 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.9735495081601778</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.621159063783826e-25</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.9735</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.6e-25</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -2015,11 +2295,15 @@
           <t>AV_2</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.4512549258419123</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.377207963749378e-22</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.4513</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3.4e-22</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -2033,11 +2317,15 @@
           <t>VA_4</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.2991775119618245</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.151797596302859e-13</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.2992</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4.2e-13</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -2051,11 +2339,15 @@
           <t>VLa_5</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.2805672557895011</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.814005502459712e-09</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6.8e-09</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2069,11 +2361,15 @@
           <t>VLP_6</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.4783862804181302</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.712838241393619e-21</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.4784</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.7e-21</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -2087,11 +2383,15 @@
           <t>VPL_7</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.4812450141203919</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.110539868757117e-21</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2.1e-21</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -2105,11 +2405,15 @@
           <t>Pul_8</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.6109912160568604</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9.24401874445475e-43</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.6110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9.2e-43</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2123,11 +2427,15 @@
           <t>LGN_9</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.5445135422033371</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.031984379708967e-33</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.5445</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2e-33</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -2141,11 +2449,15 @@
           <t>MGN_10</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.4778357960365109</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.089977851867602e-24</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.4778</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>9.1e-24</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2159,11 +2471,15 @@
           <t>CM_11</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.3929181260848574</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8.654756751422905e-16</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.3929</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8.7e-16</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2177,11 +2493,15 @@
           <t>MD_Pf_12</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.6240481878387378</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.530654171156383e-33</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.6240</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.5e-33</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
